--- a/cijfers.xlsx
+++ b/cijfers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\IPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D392A7-1823-492B-9712-E9606A0E36A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD3731-8257-4E95-8011-C81D5C6002C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{B13DF310-B0A4-4C6E-B7CA-229EB93096B6}"/>
+    <workbookView xWindow="4245" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{B13DF310-B0A4-4C6E-B7CA-229EB93096B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>2.06</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>9</v>
